--- a/tests/resources/EVA_Submission_test_V2.xlsx
+++ b/tests/resources/EVA_Submission_test_V2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="PLEASE READ FIRST" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="584">
   <si>
     <t xml:space="preserve">PLEASE READ FIRST</t>
   </si>
@@ -905,6 +905,9 @@
     <t xml:space="preserve">2021-03-12</t>
   </si>
   <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alias of the analysis that produced the file. The Analysis Alias field must be the same in the following sheets: Analysis, Sample and Files.</t>
   </si>
   <si>
@@ -924,9 +927,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sample(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
     <t xml:space="preserve">454 GS</t>
@@ -2401,7 +2401,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2430,7 +2430,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2591,10 +2591,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2986,11 +2982,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="AB7 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.5"/>
@@ -3055,7 +3051,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" s="4" customFormat="true" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="4" customFormat="true" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -3089,7 +3085,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" s="4" customFormat="true" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="4" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
@@ -3117,7 +3113,7 @@
       </c>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
@@ -3125,7 +3121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
         <v>10</v>
       </c>
@@ -3134,7 +3130,7 @@
       </c>
       <c r="C13" s="21"/>
     </row>
-    <row r="14" customFormat="false" ht="39.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
@@ -3142,7 +3138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
         <v>14</v>
       </c>
@@ -3150,7 +3146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
         <v>16</v>
       </c>
@@ -3158,7 +3154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
         <v>18</v>
       </c>
@@ -3229,10 +3225,10 @@
   <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="AB7 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.33"/>
@@ -3243,7 +3239,7 @@
         <v>71</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,7 +3247,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,7 +3255,7 @@
         <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3267,7 +3263,7 @@
         <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6290,10 +6286,10 @@
   <dimension ref="A1:F286"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AB7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="39"/>
@@ -6301,11 +6297,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" s="51" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="80" t="s">
+    <row r="1" s="50" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="79" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6328,7 +6324,7 @@
         <v>225</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>100</v>
@@ -6336,7 +6332,7 @@
       <c r="E3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="81"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -6795,7 +6791,7 @@
       <c r="B55" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="E55" s="51"/>
+      <c r="E55" s="50"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="40" t="s">
@@ -7933,22 +7929,22 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="82" t="s">
+      <c r="B283" s="81" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="82" t="s">
+      <c r="B284" s="81" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="82" t="s">
+      <c r="B285" s="81" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="82" t="s">
+      <c r="B286" s="81" t="s">
         <v>583</v>
       </c>
     </row>
@@ -7972,10 +7968,10 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="topLeft" activeCell="A33" activeCellId="1" sqref="AB7 A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.33"/>
@@ -8005,7 +8001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -8025,7 +8021,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -8068,10 +8064,10 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AB7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="176.66"/>
@@ -8201,10 +8197,10 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="AB7 A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="54.5"/>
@@ -8311,10 +8307,10 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="AB7 B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="164.83"/>
@@ -8404,7 +8400,7 @@
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8412,7 +8408,7 @@
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8477,10 +8473,10 @@
   <dimension ref="A1:O1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="1" sqref="AB7 A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.51"/>
@@ -16644,10 +16640,10 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AB7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="215"/>
@@ -16702,17 +16698,17 @@
       <c r="A8" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="44" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>118</v>
       </c>
     </row>
@@ -16765,16 +16761,16 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>130</v>
       </c>
       <c r="B17" s="44"/>
     </row>
-    <row r="18" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -16795,7 +16791,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>136</v>
       </c>
       <c r="B21" s="44"/>
@@ -16825,7 +16821,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="50" t="s">
         <v>143</v>
       </c>
       <c r="B25" s="44"/>
@@ -16871,7 +16867,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="50" t="s">
         <v>154</v>
       </c>
       <c r="B31" s="44"/>
@@ -16901,7 +16897,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="50" t="s">
         <v>161</v>
       </c>
       <c r="B35" s="44"/>
@@ -16978,16 +16974,16 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="51" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="50" t="s">
         <v>182</v>
       </c>
       <c r="B46" s="44"/>
@@ -17073,7 +17069,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="50" t="s">
         <v>203</v>
       </c>
       <c r="B57" s="44"/>
@@ -17085,7 +17081,7 @@
       <c r="B58" s="44"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="53" t="s">
+      <c r="A59" s="52" t="s">
         <v>205</v>
       </c>
       <c r="B59" s="44"/>
@@ -17117,17 +17113,17 @@
   </sheetPr>
   <dimension ref="A1:AT1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB7" activeCellId="0" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="54" width="5.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="53" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="54" width="5.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="53" width="5.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="36.5"/>
@@ -17147,255 +17143,255 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="62"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="61"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="66" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="67" t="s">
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67" t="s">
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="66" t="s">
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66" t="s">
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66" t="s">
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66" t="s">
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="70" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="70" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="K3" s="73" t="s">
+      <c r="K3" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="N3" s="73" t="s">
+      <c r="N3" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="O3" s="72" t="s">
+      <c r="O3" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="P3" s="74" t="s">
+      <c r="P3" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="Q3" s="72" t="s">
+      <c r="Q3" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="S3" s="72" t="s">
+      <c r="S3" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="T3" s="72" t="s">
+      <c r="T3" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="U3" s="72" t="s">
+      <c r="U3" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="V3" s="73" t="s">
+      <c r="V3" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="W3" s="75" t="s">
+      <c r="W3" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="X3" s="72" t="s">
+      <c r="X3" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" s="73" t="s">
+      <c r="Y3" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="Z3" s="75" t="s">
+      <c r="Z3" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" s="76" t="s">
+      <c r="AA3" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="AB3" s="71" t="s">
+      <c r="AB3" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="AC3" s="72" t="s">
+      <c r="AC3" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="AD3" s="72" t="s">
+      <c r="AD3" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="AE3" s="72" t="s">
+      <c r="AE3" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="AF3" s="72" t="s">
+      <c r="AF3" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="AG3" s="72" t="s">
+      <c r="AG3" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="AH3" s="72" t="s">
+      <c r="AH3" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="AI3" s="73" t="s">
+      <c r="AI3" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="AJ3" s="75" t="s">
+      <c r="AJ3" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="AK3" s="72" t="s">
+      <c r="AK3" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="AL3" s="72" t="s">
+      <c r="AL3" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="AM3" s="72" t="s">
+      <c r="AM3" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="AN3" s="72" t="s">
+      <c r="AN3" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="AO3" s="72" t="s">
+      <c r="AO3" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="AP3" s="72" t="s">
+      <c r="AP3" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="AQ3" s="72" t="s">
+      <c r="AQ3" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="AR3" s="72" t="s">
+      <c r="AR3" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="AS3" s="73" t="s">
+      <c r="AS3" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="AT3" s="77" t="s">
+      <c r="AT3" s="76" t="s">
         <v>203</v>
       </c>
     </row>
@@ -17409,7 +17405,7 @@
       <c r="D4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="78"/>
+      <c r="K4" s="77"/>
       <c r="W4" s="37"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17422,7 +17418,7 @@
       <c r="D5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K5" s="78"/>
+      <c r="K5" s="77"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17435,7 +17431,7 @@
       <c r="D6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="78"/>
+      <c r="K6" s="77"/>
       <c r="W6" s="37"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17457,7 +17453,7 @@
       <c r="L7" s="1" t="n">
         <v>9447</v>
       </c>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="77" t="s">
         <v>224</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -17466,8 +17462,11 @@
       <c r="V7" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AA7" s="79" t="s">
+      <c r="AA7" s="78" t="s">
         <v>227</v>
+      </c>
+      <c r="AB7" s="40" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22523,10 +22522,10 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="AB7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="153.83"/>
@@ -22545,15 +22544,15 @@
         <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
